--- a/json_api_文档.xlsx
+++ b/json_api_文档.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">函数名</t>
   </si>
@@ -42,6 +42,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">创建一个空的</t>
     </r>
@@ -50,6 +51,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -58,6 +60,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象</t>
     </r>
@@ -68,6 +71,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@</t>
     </r>
@@ -76,6 +80,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无
 </t>
@@ -85,6 +90,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return NONE</t>
     </r>
@@ -93,6 +99,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型的</t>
     </r>
@@ -101,6 +108,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -109,6 +117,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象。</t>
     </r>
@@ -122,6 +131,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">创建一个指定类型的</t>
     </r>
@@ -130,6 +140,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -138,6 +149,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象</t>
     </r>
@@ -148,6 +160,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param type_name JSON</t>
     </r>
@@ -156,6 +169,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型
 </t>
@@ -165,6 +179,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -173,6 +188,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对应类型的</t>
     </r>
@@ -181,6 +197,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -189,6 +206,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象。</t>
     </r>
@@ -202,6 +220,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">创建一个指定类型的</t>
     </r>
@@ -210,6 +229,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -218,6 +238,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象并赋值（仅</t>
     </r>
@@ -226,6 +247,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NUM</t>
     </r>
@@ -234,6 +256,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -242,6 +265,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">STR</t>
     </r>
@@ -250,6 +274,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -258,6 +283,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">BOL</t>
     </r>
@@ -266,6 +292,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型）</t>
     </r>
@@ -276,6 +303,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param type_name JSON</t>
     </r>
@@ -284,6 +312,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型
 </t>
@@ -293,6 +322,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param value </t>
     </r>
@@ -301,6 +331,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对应类型的值
 </t>
@@ -310,6 +341,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -318,6 +350,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对应类型的</t>
     </r>
@@ -326,6 +359,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -334,6 +368,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象。</t>
     </r>
@@ -353,6 +388,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对于</t>
     </r>
@@ -361,6 +397,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NONE</t>
     </r>
@@ -369,6 +406,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型的</t>
     </r>
@@ -377,6 +415,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -385,6 +424,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象，可以设置其类型值</t>
     </r>
@@ -395,6 +435,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param type_name JSON</t>
     </r>
@@ -403,6 +444,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型
 </t>
@@ -412,6 +454,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -420,6 +463,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无</t>
     </r>
@@ -433,6 +477,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设置 </t>
     </r>
@@ -441,6 +486,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">BOOL</t>
     </r>
@@ -449,6 +495,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -457,6 +504,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">STR</t>
     </r>
@@ -465,6 +513,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -473,6 +522,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NUM</t>
     </r>
@@ -481,6 +531,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型的</t>
     </r>
@@ -489,6 +540,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -497,6 +549,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">值</t>
     </r>
@@ -507,6 +560,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param value </t>
     </r>
@@ -515,6 +569,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模板类型，可以为</t>
     </r>
@@ -523,6 +578,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">bool</t>
     </r>
@@ -531,6 +587,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -539,6 +596,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">int</t>
     </r>
@@ -547,6 +605,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">或者</t>
     </r>
@@ -555,6 +614,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -563,6 +623,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，与</t>
     </r>
@@ -571,6 +632,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">json</t>
     </r>
@@ -579,6 +641,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的类型相对应
 </t>
@@ -588,6 +651,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -596,6 +660,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无</t>
     </r>
@@ -609,6 +674,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在</t>
     </r>
@@ -617,6 +683,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">OBJ</t>
     </r>
@@ -625,6 +692,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型的</t>
     </r>
@@ -633,6 +701,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -641,6 +710,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象中新增一个键值对</t>
     </r>
@@ -651,6 +721,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param key </t>
     </r>
@@ -659,6 +730,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个</t>
     </r>
@@ -667,6 +739,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">char</t>
     </r>
@@ -675,6 +748,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指针，键名
 </t>
@@ -684,6 +758,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param value </t>
     </r>
@@ -692,6 +767,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个</t>
     </r>
@@ -700,6 +776,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -708,6 +785,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指针，值
 </t>
@@ -717,6 +795,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -725,6 +804,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无</t>
     </r>
@@ -738,6 +818,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在</t>
     </r>
@@ -746,6 +827,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">arr</t>
     </r>
@@ -754,6 +836,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型的</t>
     </r>
@@ -762,6 +845,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -770,6 +854,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象的指定位置插入一个</t>
     </r>
@@ -778,6 +863,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -786,6 +872,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象
 </t>
@@ -795,6 +882,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">index</t>
     </r>
@@ -803,6 +891,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为</t>
     </r>
@@ -811,6 +900,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-1</t>
     </r>
@@ -819,6 +909,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示在最后插入</t>
     </r>
@@ -829,6 +920,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param index </t>
     </r>
@@ -837,6 +929,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个整数，表示插入的下标
 </t>
@@ -846,6 +939,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param value </t>
     </r>
@@ -854,6 +948,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个</t>
     </r>
@@ -862,6 +957,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -870,6 +966,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指针，插入的值
 </t>
@@ -879,6 +976,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -887,6 +985,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无</t>
     </r>
@@ -900,6 +999,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JOSN</t>
     </r>
@@ -908,6 +1008,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">格式化为</t>
     </r>
@@ -916,6 +1017,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">json</t>
     </r>
@@ -924,6 +1026,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">字符串</t>
     </r>
@@ -934,6 +1037,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param </t>
     </r>
@@ -942,6 +1046,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无
 </t>
@@ -951,6 +1056,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -959,6 +1065,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个</t>
     </r>
@@ -967,6 +1074,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">char</t>
     </r>
@@ -975,6 +1083,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指针，格式化后的字符串</t>
     </r>
@@ -988,6 +1097,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">返回</t>
     </r>
@@ -996,6 +1106,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -1004,6 +1115,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型</t>
     </r>
@@ -1014,6 +1126,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param </t>
     </r>
@@ -1022,6 +1135,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无
 </t>
@@ -1031,6 +1145,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -1039,6 +1154,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个</t>
     </r>
@@ -1047,6 +1163,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">json_e</t>
     </r>
@@ -1055,6 +1172,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型，表示该</t>
     </r>
@@ -1063,6 +1181,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -1071,6 +1190,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型</t>
     </r>
@@ -1084,6 +1204,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">获取</t>
     </r>
@@ -1092,6 +1213,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">BOL</t>
     </r>
@@ -1100,6 +1222,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -1108,6 +1231,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">STR</t>
     </r>
@@ -1116,6 +1240,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、</t>
     </r>
@@ -1124,6 +1249,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NUM</t>
     </r>
@@ -1132,6 +1258,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型的</t>
     </r>
@@ -1140,6 +1267,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -1148,6 +1276,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">值</t>
     </r>
@@ -1158,6 +1287,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param </t>
     </r>
@@ -1166,6 +1296,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无
 </t>
@@ -1175,6 +1306,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -1183,6 +1315,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对应的</t>
     </r>
@@ -1191,6 +1324,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">int</t>
     </r>
@@ -1199,6 +1333,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">或</t>
     </r>
@@ -1207,6 +1342,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">bool</t>
     </r>
@@ -1215,6 +1351,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">或</t>
     </r>
@@ -1223,6 +1360,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -1231,6 +1369,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">值</t>
     </r>
@@ -1244,6 +1383,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">获取</t>
     </r>
@@ -1252,6 +1392,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">OBJ</t>
     </r>
@@ -1260,6 +1401,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型的</t>
     </r>
@@ -1268,6 +1410,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JOSN</t>
     </r>
@@ -1276,6 +1419,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中指定键对应的值</t>
     </r>
@@ -1286,6 +1430,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param key </t>
     </r>
@@ -1294,6 +1439,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个</t>
     </r>
@@ -1302,6 +1448,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">char</t>
     </r>
@@ -1310,6 +1457,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指针，表示要查询的键
 </t>
@@ -1319,6 +1467,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -1327,6 +1476,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个</t>
     </r>
@@ -1335,6 +1485,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -1343,6 +1494,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指针，表示对应的值</t>
     </r>
@@ -1356,6 +1508,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">获取数组类型中对应下标的</t>
     </r>
@@ -1364,6 +1517,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JOSN</t>
     </r>
@@ -1372,6 +1526,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">值</t>
     </r>
@@ -1382,6 +1537,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param index </t>
     </r>
@@ -1390,6 +1546,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个整数，表示要查询的下标
 </t>
@@ -1399,6 +1556,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -1407,6 +1565,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个</t>
     </r>
@@ -1415,6 +1574,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -1423,6 +1583,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指针，表示对应的值</t>
     </r>
@@ -1436,6 +1597,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">清理一个</t>
     </r>
@@ -1444,6 +1606,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">JSON</t>
     </r>
@@ -1452,6 +1615,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">对象</t>
     </r>
@@ -1462,6 +1626,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param </t>
     </r>
@@ -1470,6 +1635,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无
 </t>
@@ -1479,6 +1645,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -1487,6 +1654,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无</t>
     </r>
@@ -1500,6 +1668,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">OBJ</t>
     </r>
@@ -1508,6 +1677,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型，删除一个键值对</t>
     </r>
@@ -1518,6 +1688,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param key </t>
     </r>
@@ -1526,6 +1697,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个</t>
     </r>
@@ -1534,6 +1706,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">char</t>
     </r>
@@ -1542,6 +1715,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指针，表示要删除的键 
 </t>
@@ -1551,6 +1725,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -1559,6 +1734,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无</t>
     </r>
@@ -1572,6 +1748,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ARR</t>
     </r>
@@ -1580,6 +1757,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类型，删除指定下标的数据 </t>
     </r>
@@ -1590,6 +1768,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@param index </t>
     </r>
@@ -1598,6 +1777,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个整数，表示要删除的下标
 </t>
@@ -1607,6 +1787,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@return </t>
     </r>
@@ -1615,8 +1796,323 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::to_json_str_without_tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::to_json_str_with_tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::to_yaml_str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::to_str_select_tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::none_to_str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::num_to_str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::bol_to_str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::str_to_str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::arr_to_str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::obj_to_str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none_to_yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obj_to_yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arr_to_yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON::pre_place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前导字符填充</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">@param mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">： 一个整数，选择填充模式：
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mode = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">， 填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">tab
+      Mode = 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">空格
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mode = 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">空格，最后一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">空格的第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">位置用短线取代
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mode = 4,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">空格
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mode = 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">空格，最后一个四空格的第三位置用短线取代
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">@param num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">： 一个整数，表示填充个数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">@return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">： 一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">char*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，表示返回的字符串，错误则返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">NULL</t>
     </r>
   </si>
 </sst>
@@ -1627,11 +2123,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1651,6 +2148,17 @@
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1702,13 +2210,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1716,23 +2236,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1812,233 +2332,355 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="44.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="43.07"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="2" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="166.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
